--- a/biology/Botanique/Arboretum_du_Mas_Roussillon/Arboretum_du_Mas_Roussillon.xlsx
+++ b/biology/Botanique/Arboretum_du_Mas_Roussillon/Arboretum_du_Mas_Roussillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum du Mas Roussillon (en catalan, Arborètum de Mas Rosselló), est un arboretum de 14 hectares situé à la périphérie de Canet-en-Roussillon, dans le département des Pyrénées-Orientales, en France.
 Il est géré par le "CCEAME - Centre Catalan d'Etudes pour l'Agronomie Méditerranéenne et l'Environnement" et est ouvert au grand public librement.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum a été créé en 2001. IL est géré par le «CCEAME - Centre Catalan d'Etudes pour l'Agronomie Méditerranéenne et l'Environnement».
 </t>
@@ -543,7 +557,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il propose au public la découverte d'une collection de plantes représentant les cinq continents.
 L'arboretum situé au sommet de la zone comprend plus de 1 000 espèces d'arbres et d'arbustes.
@@ -579,7 +595,9 @@
           <t>Quelques-unes des plantes remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Collection de quinze eucalyptus, dont un près de Mas, qui a environ 140 ans. C'est l'un des meilleurs exemples d'Eucalyptus camaldulensis du Languedoc-Roussillon.
 La collection d'oliviers comprend plus de 35 variétés différentes, essentiellement du Languedoc-Roussillon.
@@ -590,7 +608,7 @@
 Pinus coulteri, communément appelé "arbre du veuf". C'est le type de pin dont le cône est le plus lourd (2 kilos) et dont sa dimension de 30 à 40 cm, rend la chute dangereux, ce qui lui a donné son nom populaire.
 Davidia involucrata, est aussi appelée "arbre des colombes", à cause de ses grosses bractées blanches qui pendent comme des mouchoirs sur toutes les branches.
 Une collection d'une trentaine de chênes différents, adaptés au climat méditerranéen.
-Un ensemble de ceps de vigne comprenant plus de 40 variétés de vigne cultivées traditionnellement, dont 36 sont cultivées dans le cadre de programmes opérationnels de vinification[1].</t>
+Un ensemble de ceps de vigne comprenant plus de 40 variétés de vigne cultivées traditionnellement, dont 36 sont cultivées dans le cadre de programmes opérationnels de vinification.</t>
         </is>
       </c>
     </row>
